--- a/result/extreme_weather/basic_statistics/city_6/basic_statistics.xlsx
+++ b/result/extreme_weather/basic_statistics/city_6/basic_statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,392 +483,426 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>TEMP</t>
+          <t>RH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162.68</v>
+        <v>3.88</v>
       </c>
       <c r="C2" t="n">
-        <v>20.02</v>
+        <v>0.87</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.65</v>
+        <v>-0.8</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.52</v>
+        <v>0.55</v>
       </c>
       <c r="F2" t="n">
-        <v>107.24</v>
+        <v>1.09</v>
       </c>
       <c r="G2" t="n">
-        <v>118.04</v>
+        <v>1.66</v>
       </c>
       <c r="H2" t="n">
-        <v>167.9</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>189.01</v>
+        <v>5.24</v>
       </c>
       <c r="J2" t="n">
-        <v>194.18</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>DEWP</t>
+          <t>TEMP</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.93</v>
+        <v>162.68</v>
       </c>
       <c r="C3" t="n">
-        <v>24.24</v>
+        <v>20.02</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.85</v>
+        <v>-0.65</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.13</v>
+        <v>-0.52</v>
       </c>
       <c r="F3" t="n">
-        <v>75.2</v>
+        <v>107.24</v>
       </c>
       <c r="G3" t="n">
-        <v>96.55</v>
+        <v>118.04</v>
       </c>
       <c r="H3" t="n">
-        <v>159.44</v>
+        <v>167.9</v>
       </c>
       <c r="I3" t="n">
-        <v>179.78</v>
+        <v>189.01</v>
       </c>
       <c r="J3" t="n">
-        <v>185.9</v>
+        <v>194.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>DEWP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.23</v>
+        <v>66.63</v>
       </c>
       <c r="C4" t="n">
-        <v>0.72</v>
+        <v>13.47</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22</v>
+        <v>-0.85</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.73</v>
+        <v>-0.13</v>
       </c>
       <c r="F4" t="n">
-        <v>99.42</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>100.09</v>
+        <v>35.86</v>
       </c>
       <c r="H4" t="n">
-        <v>101.2</v>
+        <v>70.8</v>
       </c>
       <c r="I4" t="n">
-        <v>102.62</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>103.18</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>STP</t>
+          <t>SLP</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.63</v>
+        <v>101.23</v>
       </c>
       <c r="C5" t="n">
-        <v>41.54</v>
+        <v>0.72</v>
       </c>
       <c r="D5" t="n">
-        <v>1.29</v>
+        <v>0.22</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.34</v>
+        <v>-0.73</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>99.42</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03</v>
+        <v>100.09</v>
       </c>
       <c r="H5" t="n">
-        <v>1.1</v>
+        <v>101.2</v>
       </c>
       <c r="I5" t="n">
-        <v>99.95</v>
+        <v>102.62</v>
       </c>
       <c r="J5" t="n">
-        <v>99.98</v>
+        <v>103.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>VISIB</t>
+          <t>STP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.17</v>
+        <v>23.63</v>
       </c>
       <c r="C6" t="n">
-        <v>5.03</v>
+        <v>41.54</v>
       </c>
       <c r="D6" t="n">
-        <v>0.85</v>
+        <v>1.29</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7</v>
+        <v>-0.34</v>
       </c>
       <c r="F6" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.22</v>
+        <v>0.03</v>
       </c>
       <c r="H6" t="n">
-        <v>10.3</v>
+        <v>1.1</v>
       </c>
       <c r="I6" t="n">
-        <v>23.48</v>
+        <v>99.95</v>
       </c>
       <c r="J6" t="n">
-        <v>29.93</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>WDSP</t>
+          <t>VISIB</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.94</v>
+        <v>11.17</v>
       </c>
       <c r="C7" t="n">
-        <v>1.18</v>
+        <v>5.03</v>
       </c>
       <c r="D7" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="E7" t="n">
-        <v>0.14</v>
+        <v>0.7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.72</v>
+        <v>1.77</v>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>3.22</v>
       </c>
       <c r="H7" t="n">
-        <v>2.62</v>
+        <v>10.3</v>
       </c>
       <c r="I7" t="n">
-        <v>5.62</v>
+        <v>23.48</v>
       </c>
       <c r="J7" t="n">
-        <v>7.25</v>
+        <v>29.93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MXSPD</t>
+          <t>WDSP</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.64</v>
+        <v>2.94</v>
       </c>
       <c r="C8" t="n">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="D8" t="n">
-        <v>0.66</v>
+        <v>0.83</v>
       </c>
       <c r="E8" t="n">
-        <v>0.46</v>
+        <v>0.14</v>
       </c>
       <c r="F8" t="n">
-        <v>2.01</v>
+        <v>0.72</v>
       </c>
       <c r="G8" t="n">
-        <v>2.01</v>
+        <v>1.36</v>
       </c>
       <c r="H8" t="n">
-        <v>4.12</v>
+        <v>2.62</v>
       </c>
       <c r="I8" t="n">
-        <v>7.97</v>
+        <v>5.62</v>
       </c>
       <c r="J8" t="n">
-        <v>11.99</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>GUST</t>
+          <t>MXSPD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.35</v>
+        <v>4.64</v>
       </c>
       <c r="C9" t="n">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.47</v>
+        <v>0.66</v>
       </c>
       <c r="E9" t="n">
-        <v>8.16</v>
+        <v>0.46</v>
       </c>
       <c r="F9" t="n">
-        <v>4.99</v>
+        <v>2.01</v>
       </c>
       <c r="G9" t="n">
-        <v>6.38</v>
+        <v>2.01</v>
       </c>
       <c r="H9" t="n">
-        <v>11.68</v>
+        <v>4.12</v>
       </c>
       <c r="I9" t="n">
-        <v>13.17</v>
+        <v>7.97</v>
       </c>
       <c r="J9" t="n">
-        <v>16.56</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MAX</t>
+          <t>GUST</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>178.21</v>
+        <v>11.35</v>
       </c>
       <c r="C10" t="n">
-        <v>20.96</v>
+        <v>1.41</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.83</v>
+        <v>-2.47</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.02</v>
+        <v>8.16</v>
       </c>
       <c r="F10" t="n">
-        <v>112.64</v>
+        <v>4.99</v>
       </c>
       <c r="G10" t="n">
-        <v>129.09</v>
+        <v>6.38</v>
       </c>
       <c r="H10" t="n">
-        <v>182.84</v>
+        <v>11.68</v>
       </c>
       <c r="I10" t="n">
-        <v>205</v>
+        <v>13.17</v>
       </c>
       <c r="J10" t="n">
-        <v>212</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAX</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>150.9</v>
+        <v>178.21</v>
       </c>
       <c r="C11" t="n">
-        <v>20.39</v>
+        <v>20.96</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5</v>
+        <v>-0.83</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.93</v>
+        <v>-0.02</v>
       </c>
       <c r="F11" t="n">
-        <v>105.8</v>
+        <v>112.64</v>
       </c>
       <c r="G11" t="n">
-        <v>110.19</v>
+        <v>129.09</v>
       </c>
       <c r="H11" t="n">
-        <v>154.4</v>
+        <v>182.84</v>
       </c>
       <c r="I11" t="n">
-        <v>178.34</v>
+        <v>205</v>
       </c>
       <c r="J11" t="n">
-        <v>181.94</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>PRCP</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01</v>
+        <v>150.9</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01</v>
+        <v>20.39</v>
       </c>
       <c r="D12" t="n">
-        <v>4.08</v>
+        <v>-0.5</v>
       </c>
       <c r="E12" t="n">
-        <v>21.1</v>
+        <v>-0.93</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>105.8</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>110.19</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>154.4</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05</v>
+        <v>178.34</v>
       </c>
       <c r="J12" t="n">
-        <v>0.14</v>
+        <v>181.94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>PRCP</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E13" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>SNDP</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result/extreme_weather/basic_statistics/city_6/basic_statistics.xlsx
+++ b/result/extreme_weather/basic_statistics/city_6/basic_statistics.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.88</v>
+        <v>1022.38</v>
       </c>
       <c r="C2" t="n">
-        <v>0.87</v>
+        <v>263.01</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8</v>
+        <v>-0.91</v>
       </c>
       <c r="E2" t="n">
-        <v>0.55</v>
+        <v>0.18</v>
       </c>
       <c r="F2" t="n">
-        <v>1.09</v>
+        <v>215.08</v>
       </c>
       <c r="G2" t="n">
-        <v>1.66</v>
+        <v>377.2</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1090.63</v>
       </c>
       <c r="I2" t="n">
-        <v>5.24</v>
+        <v>1363.06</v>
       </c>
       <c r="J2" t="n">
-        <v>5.75</v>
+        <v>1411.09</v>
       </c>
     </row>
     <row r="3">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.68</v>
+        <v>22.56</v>
       </c>
       <c r="C3" t="n">
-        <v>20.02</v>
+        <v>6.18</v>
       </c>
       <c r="D3" t="n">
         <v>-0.65</v>
@@ -533,19 +533,19 @@
         <v>-0.52</v>
       </c>
       <c r="F3" t="n">
-        <v>107.24</v>
+        <v>5.44</v>
       </c>
       <c r="G3" t="n">
-        <v>118.04</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>167.9</v>
+        <v>24.17</v>
       </c>
       <c r="I3" t="n">
-        <v>189.01</v>
+        <v>30.68</v>
       </c>
       <c r="J3" t="n">
-        <v>194.18</v>
+        <v>32.28</v>
       </c>
     </row>
     <row r="4">
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.21</v>
+        <v>27.35</v>
       </c>
       <c r="C11" t="n">
-        <v>20.96</v>
+        <v>6.47</v>
       </c>
       <c r="D11" t="n">
         <v>-0.83</v>
@@ -805,19 +805,19 @@
         <v>-0.02</v>
       </c>
       <c r="F11" t="n">
-        <v>112.64</v>
+        <v>7.11</v>
       </c>
       <c r="G11" t="n">
-        <v>129.09</v>
+        <v>12.19</v>
       </c>
       <c r="H11" t="n">
-        <v>182.84</v>
+        <v>28.78</v>
       </c>
       <c r="I11" t="n">
-        <v>205</v>
+        <v>35.62</v>
       </c>
       <c r="J11" t="n">
-        <v>212</v>
+        <v>37.78</v>
       </c>
     </row>
     <row r="12">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.9</v>
+        <v>18.92</v>
       </c>
       <c r="C12" t="n">
-        <v>20.39</v>
+        <v>6.29</v>
       </c>
       <c r="D12" t="n">
         <v>-0.5</v>
@@ -839,19 +839,19 @@
         <v>-0.93</v>
       </c>
       <c r="F12" t="n">
-        <v>105.8</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>110.19</v>
+        <v>6.36</v>
       </c>
       <c r="H12" t="n">
-        <v>154.4</v>
+        <v>20</v>
       </c>
       <c r="I12" t="n">
-        <v>178.34</v>
+        <v>27.39</v>
       </c>
       <c r="J12" t="n">
-        <v>181.94</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="13">

--- a/result/extreme_weather/basic_statistics/city_6/basic_statistics.xlsx
+++ b/result/extreme_weather/basic_statistics/city_6/basic_statistics.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1022.38</v>
+        <v>82.73999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>263.01</v>
+        <v>14.7</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.91</v>
+        <v>-1.17</v>
       </c>
       <c r="E2" t="n">
-        <v>0.18</v>
+        <v>1.05</v>
       </c>
       <c r="F2" t="n">
-        <v>215.08</v>
+        <v>31.38</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2</v>
+        <v>42.63</v>
       </c>
       <c r="H2" t="n">
-        <v>1090.63</v>
+        <v>86.19</v>
       </c>
       <c r="I2" t="n">
-        <v>1363.06</v>
+        <v>100</v>
       </c>
       <c r="J2" t="n">
-        <v>1411.09</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.63</v>
+        <v>19.24</v>
       </c>
       <c r="C4" t="n">
-        <v>13.47</v>
+        <v>7.48</v>
       </c>
       <c r="D4" t="n">
         <v>-0.85</v>
@@ -567,19 +567,19 @@
         <v>-0.13</v>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>-4.44</v>
       </c>
       <c r="G4" t="n">
-        <v>35.86</v>
+        <v>2.14</v>
       </c>
       <c r="H4" t="n">
-        <v>70.8</v>
+        <v>21.56</v>
       </c>
       <c r="I4" t="n">
-        <v>82.09999999999999</v>
+        <v>27.83</v>
       </c>
       <c r="J4" t="n">
-        <v>85.5</v>
+        <v>29.72</v>
       </c>
     </row>
     <row r="5">
